--- a/python/project/analysis_hourse_sold/依云曦府.xlsx
+++ b/python/project/analysis_hourse_sold/依云曦府.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13764" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6栋" sheetId="1" r:id="rId1"/>
     <sheet name="9栋" sheetId="2" r:id="rId2"/>
     <sheet name="10栋" sheetId="3" r:id="rId3"/>
+    <sheet name="1栋" sheetId="4" r:id="rId4"/>
+    <sheet name="8栋" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="17">
   <si>
     <t>户室号</t>
   </si>
@@ -74,18 +76,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF017BBC"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -97,7 +111,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,29 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -232,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,31 +255,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,36 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,8 +421,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -435,17 +455,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color rgb="FFD9D9D9"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,15 +505,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,139 +587,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,9 +1087,9 @@
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4396,7 +4443,7 @@
       <selection activeCell="A1" sqref="A1:I129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -8151,11 +8198,11 @@
   <sheetPr/>
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -12019,4 +12066,4504 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="27.15" spans="1:9">
+      <c r="A2" s="4">
+        <v>201</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G2" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H2" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="27.15" spans="1:9">
+      <c r="A3" s="4">
+        <v>202</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G3" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="27.15" spans="1:9">
+      <c r="A4" s="4">
+        <v>203</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G4" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H4" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="27.15" spans="1:9">
+      <c r="A5" s="4">
+        <v>204</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G5" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H5" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="27.15" spans="1:9">
+      <c r="A6" s="4">
+        <v>301</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G6" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H6" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="27.15" spans="1:9">
+      <c r="A7" s="4">
+        <v>302</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G7" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="27.15" spans="1:9">
+      <c r="A8" s="4">
+        <v>303</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G8" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H8" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="27.15" spans="1:9">
+      <c r="A9" s="4">
+        <v>304</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G9" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H9" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="27.15" spans="1:9">
+      <c r="A10" s="4">
+        <v>401</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G10" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H10" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="27.15" spans="1:9">
+      <c r="A11" s="4">
+        <v>402</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G11" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="27.15" spans="1:9">
+      <c r="A12" s="4">
+        <v>403</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G12" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H12" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="27.15" spans="1:9">
+      <c r="A13" s="4">
+        <v>404</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G13" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H13" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="27.15" spans="1:9">
+      <c r="A14" s="4">
+        <v>501</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G14" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H14" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="1:9">
+      <c r="A15" s="4">
+        <v>502</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G15" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="27.15" spans="1:9">
+      <c r="A16" s="4">
+        <v>503</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G16" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H16" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="27.15" spans="1:9">
+      <c r="A17" s="4">
+        <v>504</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G17" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H17" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="27.15" spans="1:9">
+      <c r="A18" s="4">
+        <v>601</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G18" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H18" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="27.15" spans="1:9">
+      <c r="A19" s="4">
+        <v>602</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G19" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H19" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="27.15" spans="1:9">
+      <c r="A20" s="4">
+        <v>603</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G20" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H20" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="27.15" spans="1:9">
+      <c r="A21" s="4">
+        <v>604</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G21" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H21" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="27.15" spans="1:9">
+      <c r="A22" s="4">
+        <v>701</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G22" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H22" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="27.15" spans="1:9">
+      <c r="A23" s="4">
+        <v>702</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G23" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="27.15" spans="1:9">
+      <c r="A24" s="4">
+        <v>703</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G24" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H24" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="27.15" spans="1:9">
+      <c r="A25" s="4">
+        <v>704</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G25" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H25" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="27.15" spans="1:9">
+      <c r="A26" s="4">
+        <v>801</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G26" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H26" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="27.15" spans="1:9">
+      <c r="A27" s="4">
+        <v>802</v>
+      </c>
+      <c r="B27" s="4">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G27" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H27" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="27.15" spans="1:9">
+      <c r="A28" s="4">
+        <v>803</v>
+      </c>
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G28" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H28" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="27.15" spans="1:9">
+      <c r="A29" s="4">
+        <v>804</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G29" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H29" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="27.15" spans="1:9">
+      <c r="A30" s="4">
+        <v>901</v>
+      </c>
+      <c r="B30" s="4">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G30" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H30" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="27.15" spans="1:9">
+      <c r="A31" s="4">
+        <v>902</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G31" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H31" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="27.15" spans="1:9">
+      <c r="A32" s="4">
+        <v>903</v>
+      </c>
+      <c r="B32" s="4">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G32" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H32" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="27.15" spans="1:9">
+      <c r="A33" s="4">
+        <v>904</v>
+      </c>
+      <c r="B33" s="4">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G33" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H33" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="27.15" spans="1:9">
+      <c r="A34" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G34" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H34" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="27.15" spans="1:9">
+      <c r="A35" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G35" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H35" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="27.15" spans="1:9">
+      <c r="A36" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G36" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H36" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="27.15" spans="1:9">
+      <c r="A37" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G37" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H37" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="27.15" spans="1:9">
+      <c r="A38" s="4">
+        <v>1101</v>
+      </c>
+      <c r="B38" s="4">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G38" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H38" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="27.15" spans="1:9">
+      <c r="A39" s="4">
+        <v>1102</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G39" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H39" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="27.15" spans="1:9">
+      <c r="A40" s="4">
+        <v>1103</v>
+      </c>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G40" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H40" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="27.15" spans="1:9">
+      <c r="A41" s="4">
+        <v>1104</v>
+      </c>
+      <c r="B41" s="4">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G41" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H41" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="27.15" spans="1:9">
+      <c r="A42" s="4">
+        <v>1201</v>
+      </c>
+      <c r="B42" s="4">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G42" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H42" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="27.15" spans="1:9">
+      <c r="A43" s="4">
+        <v>1202</v>
+      </c>
+      <c r="B43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G43" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H43" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="27.15" spans="1:9">
+      <c r="A44" s="4">
+        <v>1203</v>
+      </c>
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G44" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H44" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="27.15" spans="1:9">
+      <c r="A45" s="4">
+        <v>1204</v>
+      </c>
+      <c r="B45" s="4">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G45" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H45" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="27.15" spans="1:9">
+      <c r="A46" s="4">
+        <v>1301</v>
+      </c>
+      <c r="B46" s="4">
+        <v>13</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G46" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H46" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="27.15" spans="1:9">
+      <c r="A47" s="4">
+        <v>1302</v>
+      </c>
+      <c r="B47" s="4">
+        <v>13</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G47" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H47" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="27.15" spans="1:9">
+      <c r="A48" s="4">
+        <v>1303</v>
+      </c>
+      <c r="B48" s="4">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G48" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H48" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="27.15" spans="1:9">
+      <c r="A49" s="4">
+        <v>1304</v>
+      </c>
+      <c r="B49" s="4">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G49" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H49" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="27.15" spans="1:9">
+      <c r="A50" s="4">
+        <v>1401</v>
+      </c>
+      <c r="B50" s="4">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G50" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H50" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="27.15" spans="1:9">
+      <c r="A51" s="4">
+        <v>1402</v>
+      </c>
+      <c r="B51" s="4">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G51" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H51" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="27.15" spans="1:9">
+      <c r="A52" s="4">
+        <v>1403</v>
+      </c>
+      <c r="B52" s="4">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G52" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H52" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="27.15" spans="1:9">
+      <c r="A53" s="4">
+        <v>1404</v>
+      </c>
+      <c r="B53" s="4">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G53" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H53" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="27.15" spans="1:9">
+      <c r="A54" s="4">
+        <v>1501</v>
+      </c>
+      <c r="B54" s="4">
+        <v>15</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G54" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H54" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="27.15" spans="1:9">
+      <c r="A55" s="4">
+        <v>1502</v>
+      </c>
+      <c r="B55" s="4">
+        <v>15</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G55" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H55" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="27.15" spans="1:9">
+      <c r="A56" s="4">
+        <v>1503</v>
+      </c>
+      <c r="B56" s="4">
+        <v>15</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G56" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H56" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="27.15" spans="1:9">
+      <c r="A57" s="4">
+        <v>1504</v>
+      </c>
+      <c r="B57" s="4">
+        <v>15</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G57" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H57" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="27.15" spans="1:9">
+      <c r="A58" s="4">
+        <v>1601</v>
+      </c>
+      <c r="B58" s="4">
+        <v>16</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G58" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H58" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" ht="27.15" spans="1:9">
+      <c r="A59" s="4">
+        <v>1602</v>
+      </c>
+      <c r="B59" s="4">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G59" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H59" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="27.15" spans="1:9">
+      <c r="A60" s="4">
+        <v>1603</v>
+      </c>
+      <c r="B60" s="4">
+        <v>16</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G60" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H60" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="27.15" spans="1:9">
+      <c r="A61" s="4">
+        <v>1604</v>
+      </c>
+      <c r="B61" s="4">
+        <v>16</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G61" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H61" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="27.15" spans="1:9">
+      <c r="A62" s="4">
+        <v>1701</v>
+      </c>
+      <c r="B62" s="4">
+        <v>17</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G62" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H62" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="27.15" spans="1:9">
+      <c r="A63" s="4">
+        <v>1702</v>
+      </c>
+      <c r="B63" s="4">
+        <v>17</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G63" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H63" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="27.15" spans="1:9">
+      <c r="A64" s="4">
+        <v>1703</v>
+      </c>
+      <c r="B64" s="4">
+        <v>17</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G64" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H64" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="27.15" spans="1:9">
+      <c r="A65" s="4">
+        <v>1704</v>
+      </c>
+      <c r="B65" s="4">
+        <v>17</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G65" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H65" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="27.15" spans="1:9">
+      <c r="A66" s="4">
+        <v>1801</v>
+      </c>
+      <c r="B66" s="4">
+        <v>18</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G66" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H66" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="27.15" spans="1:9">
+      <c r="A67" s="4">
+        <v>1802</v>
+      </c>
+      <c r="B67" s="4">
+        <v>18</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G67" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H67" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="27.15" spans="1:9">
+      <c r="A68" s="4">
+        <v>1803</v>
+      </c>
+      <c r="B68" s="4">
+        <v>18</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G68" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H68" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="27.15" spans="1:9">
+      <c r="A69" s="4">
+        <v>1804</v>
+      </c>
+      <c r="B69" s="4">
+        <v>18</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G69" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H69" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="27.15" spans="1:9">
+      <c r="A70" s="4">
+        <v>1901</v>
+      </c>
+      <c r="B70" s="4">
+        <v>19</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G70" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H70" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="27.15" spans="1:9">
+      <c r="A71" s="4">
+        <v>1902</v>
+      </c>
+      <c r="B71" s="4">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G71" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H71" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="27.15" spans="1:9">
+      <c r="A72" s="4">
+        <v>1903</v>
+      </c>
+      <c r="B72" s="4">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G72" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H72" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="27.15" spans="1:9">
+      <c r="A73" s="4">
+        <v>1904</v>
+      </c>
+      <c r="B73" s="4">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G73" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H73" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="27.15" spans="1:9">
+      <c r="A74" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B74" s="4">
+        <v>20</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G74" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H74" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="27.15" spans="1:9">
+      <c r="A75" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B75" s="4">
+        <v>20</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G75" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H75" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="27.15" spans="1:9">
+      <c r="A76" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B76" s="4">
+        <v>20</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G76" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H76" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="27.15" spans="1:9">
+      <c r="A77" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G77" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H77" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="27.15" spans="1:9">
+      <c r="A78" s="4">
+        <v>2101</v>
+      </c>
+      <c r="B78" s="4">
+        <v>21</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G78" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H78" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="27.15" spans="1:9">
+      <c r="A79" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B79" s="4">
+        <v>21</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G79" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H79" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="27.15" spans="1:9">
+      <c r="A80" s="4">
+        <v>2103</v>
+      </c>
+      <c r="B80" s="4">
+        <v>21</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G80" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H80" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="27.15" spans="1:9">
+      <c r="A81" s="4">
+        <v>2104</v>
+      </c>
+      <c r="B81" s="4">
+        <v>21</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G81" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H81" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="27.15" spans="1:9">
+      <c r="A82" s="4">
+        <v>2201</v>
+      </c>
+      <c r="B82" s="4">
+        <v>22</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G82" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H82" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="27.15" spans="1:9">
+      <c r="A83" s="4">
+        <v>2202</v>
+      </c>
+      <c r="B83" s="4">
+        <v>22</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G83" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H83" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="27.15" spans="1:9">
+      <c r="A84" s="4">
+        <v>2203</v>
+      </c>
+      <c r="B84" s="4">
+        <v>22</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G84" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H84" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="27.15" spans="1:9">
+      <c r="A85" s="4">
+        <v>2204</v>
+      </c>
+      <c r="B85" s="4">
+        <v>22</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G85" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H85" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="27.15" spans="1:9">
+      <c r="A86" s="4">
+        <v>2301</v>
+      </c>
+      <c r="B86" s="4">
+        <v>23</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G86" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H86" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="27.15" spans="1:9">
+      <c r="A87" s="4">
+        <v>2302</v>
+      </c>
+      <c r="B87" s="4">
+        <v>23</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G87" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H87" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="27.15" spans="1:9">
+      <c r="A88" s="4">
+        <v>2303</v>
+      </c>
+      <c r="B88" s="4">
+        <v>23</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G88" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H88" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="27.15" spans="1:9">
+      <c r="A89" s="4">
+        <v>2304</v>
+      </c>
+      <c r="B89" s="4">
+        <v>23</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G89" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H89" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" ht="27.15" spans="1:9">
+      <c r="A90" s="4">
+        <v>2401</v>
+      </c>
+      <c r="B90" s="4">
+        <v>24</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G90" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H90" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="27.15" spans="1:9">
+      <c r="A91" s="4">
+        <v>2402</v>
+      </c>
+      <c r="B91" s="4">
+        <v>24</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G91" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H91" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="27.15" spans="1:9">
+      <c r="A92" s="4">
+        <v>2403</v>
+      </c>
+      <c r="B92" s="4">
+        <v>24</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G92" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H92" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" ht="27.15" spans="1:9">
+      <c r="A93" s="4">
+        <v>2404</v>
+      </c>
+      <c r="B93" s="4">
+        <v>24</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G93" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H93" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="27.15" spans="1:9">
+      <c r="A94" s="4">
+        <v>2501</v>
+      </c>
+      <c r="B94" s="4">
+        <v>25</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G94" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H94" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="27.15" spans="1:9">
+      <c r="A95" s="4">
+        <v>2502</v>
+      </c>
+      <c r="B95" s="4">
+        <v>25</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G95" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H95" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" ht="27.15" spans="1:9">
+      <c r="A96" s="4">
+        <v>2503</v>
+      </c>
+      <c r="B96" s="4">
+        <v>25</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G96" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H96" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" ht="27.15" spans="1:9">
+      <c r="A97" s="4">
+        <v>2504</v>
+      </c>
+      <c r="B97" s="4">
+        <v>25</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G97" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H97" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="27.15" spans="1:9">
+      <c r="A98" s="4">
+        <v>2601</v>
+      </c>
+      <c r="B98" s="4">
+        <v>26</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G98" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H98" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="27.15" spans="1:9">
+      <c r="A99" s="4">
+        <v>2602</v>
+      </c>
+      <c r="B99" s="4">
+        <v>26</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G99" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H99" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" ht="27.15" spans="1:9">
+      <c r="A100" s="4">
+        <v>2603</v>
+      </c>
+      <c r="B100" s="4">
+        <v>26</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G100" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H100" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="27.15" spans="1:9">
+      <c r="A101" s="4">
+        <v>2604</v>
+      </c>
+      <c r="B101" s="4">
+        <v>26</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G101" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H101" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="27.15" spans="1:9">
+      <c r="A102" s="4">
+        <v>2701</v>
+      </c>
+      <c r="B102" s="4">
+        <v>27</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G102" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H102" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="27.15" spans="1:9">
+      <c r="A103" s="4">
+        <v>2702</v>
+      </c>
+      <c r="B103" s="4">
+        <v>27</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G103" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H103" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="27.15" spans="1:9">
+      <c r="A104" s="4">
+        <v>2703</v>
+      </c>
+      <c r="B104" s="4">
+        <v>27</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G104" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H104" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" ht="27.15" spans="1:9">
+      <c r="A105" s="4">
+        <v>2704</v>
+      </c>
+      <c r="B105" s="4">
+        <v>27</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G105" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H105" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" ht="27.15" spans="1:9">
+      <c r="A106" s="4">
+        <v>2801</v>
+      </c>
+      <c r="B106" s="4">
+        <v>28</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G106" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H106" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="27.15" spans="1:9">
+      <c r="A107" s="4">
+        <v>2802</v>
+      </c>
+      <c r="B107" s="4">
+        <v>28</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G107" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H107" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" ht="27.15" spans="1:9">
+      <c r="A108" s="4">
+        <v>2803</v>
+      </c>
+      <c r="B108" s="4">
+        <v>28</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G108" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H108" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="27.15" spans="1:9">
+      <c r="A109" s="4">
+        <v>2804</v>
+      </c>
+      <c r="B109" s="4">
+        <v>28</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G109" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H109" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" ht="27.15" spans="1:9">
+      <c r="A110" s="4">
+        <v>2901</v>
+      </c>
+      <c r="B110" s="4">
+        <v>29</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G110" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H110" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="27.15" spans="1:9">
+      <c r="A111" s="4">
+        <v>2902</v>
+      </c>
+      <c r="B111" s="4">
+        <v>29</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G111" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H111" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="27.15" spans="1:9">
+      <c r="A112" s="4">
+        <v>2903</v>
+      </c>
+      <c r="B112" s="4">
+        <v>29</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G112" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H112" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="27.15" spans="1:9">
+      <c r="A113" s="4">
+        <v>2904</v>
+      </c>
+      <c r="B113" s="4">
+        <v>29</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G113" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H113" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" ht="27.15" spans="1:9">
+      <c r="A114" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B114" s="4">
+        <v>30</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G114" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H114" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="27.15" spans="1:9">
+      <c r="A115" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B115" s="4">
+        <v>30</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G115" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H115" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="27.15" spans="1:9">
+      <c r="A116" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B116" s="4">
+        <v>30</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G116" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H116" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="27.15" spans="1:9">
+      <c r="A117" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B117" s="4">
+        <v>30</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G117" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H117" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="27.15" spans="1:9">
+      <c r="A118" s="4">
+        <v>3101</v>
+      </c>
+      <c r="B118" s="4">
+        <v>31</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4">
+        <v>142.82</v>
+      </c>
+      <c r="G118" s="4">
+        <v>108.99</v>
+      </c>
+      <c r="H118" s="4">
+        <v>33.83</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="27.15" spans="1:9">
+      <c r="A119" s="4">
+        <v>3102</v>
+      </c>
+      <c r="B119" s="4">
+        <v>31</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4">
+        <v>124.36</v>
+      </c>
+      <c r="G119" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="H119" s="4">
+        <v>29.46</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="27.15" spans="1:9">
+      <c r="A120" s="4">
+        <v>3103</v>
+      </c>
+      <c r="B120" s="4">
+        <v>31</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G120" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H120" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="27.15" spans="1:9">
+      <c r="A121" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B121" s="4">
+        <v>31</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4">
+        <v>100.98</v>
+      </c>
+      <c r="G121" s="4">
+        <v>77.06</v>
+      </c>
+      <c r="H121" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="27.15" spans="1:9">
+      <c r="A2" s="2">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="27.15" spans="1:9">
+      <c r="A3" s="2">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="27.15" spans="1:9">
+      <c r="A4" s="2">
+        <v>301</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="27.15" spans="1:9">
+      <c r="A5" s="2">
+        <v>302</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="27.15" spans="1:9">
+      <c r="A6" s="2">
+        <v>401</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="27.15" spans="1:9">
+      <c r="A7" s="2">
+        <v>402</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="27.15" spans="1:9">
+      <c r="A8" s="2">
+        <v>501</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="27.15" spans="1:9">
+      <c r="A9" s="2">
+        <v>502</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="27.15" spans="1:9">
+      <c r="A10" s="2">
+        <v>601</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G10" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="27.15" spans="1:9">
+      <c r="A11" s="2">
+        <v>602</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H11" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="27.15" spans="1:9">
+      <c r="A12" s="2">
+        <v>701</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G12" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H12" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="27.15" spans="1:9">
+      <c r="A13" s="2">
+        <v>702</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G13" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H13" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="27.15" spans="1:9">
+      <c r="A14" s="2">
+        <v>801</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G14" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H14" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="1:9">
+      <c r="A15" s="2">
+        <v>802</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G15" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H15" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="27.15" spans="1:9">
+      <c r="A16" s="2">
+        <v>901</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G16" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H16" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="27.15" spans="1:9">
+      <c r="A17" s="2">
+        <v>902</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="27.15" spans="1:9">
+      <c r="A18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G18" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H18" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="27.15" spans="1:9">
+      <c r="A19" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G19" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H19" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="27.15" spans="1:9">
+      <c r="A20" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G20" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H20" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="27.15" spans="1:9">
+      <c r="A21" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G21" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H21" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="27.15" spans="1:9">
+      <c r="A22" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H22" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="27.15" spans="1:9">
+      <c r="A23" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G23" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H23" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="27.15" spans="1:9">
+      <c r="A24" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B24" s="2">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G24" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H24" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="27.15" spans="1:9">
+      <c r="A25" s="2">
+        <v>1302</v>
+      </c>
+      <c r="B25" s="2">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G25" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H25" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="27.15" spans="1:9">
+      <c r="A26" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G26" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H26" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="27.15" spans="1:9">
+      <c r="A27" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G27" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H27" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="27.15" spans="1:9">
+      <c r="A28" s="2">
+        <v>1501</v>
+      </c>
+      <c r="B28" s="2">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H28" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="27.15" spans="1:9">
+      <c r="A29" s="2">
+        <v>1502</v>
+      </c>
+      <c r="B29" s="2">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G29" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H29" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="27.15" spans="1:9">
+      <c r="A30" s="2">
+        <v>1601</v>
+      </c>
+      <c r="B30" s="2">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G30" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H30" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="27.15" spans="1:9">
+      <c r="A31" s="2">
+        <v>1602</v>
+      </c>
+      <c r="B31" s="2">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G31" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H31" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="27.15" spans="1:9">
+      <c r="A32" s="2">
+        <v>1701</v>
+      </c>
+      <c r="B32" s="2">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>149.24</v>
+      </c>
+      <c r="G32" s="2">
+        <v>116.85</v>
+      </c>
+      <c r="H32" s="2">
+        <v>32.39</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="27.15" spans="1:9">
+      <c r="A33" s="2">
+        <v>1702</v>
+      </c>
+      <c r="B33" s="2">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>149.36</v>
+      </c>
+      <c r="G33" s="2">
+        <v>116.94</v>
+      </c>
+      <c r="H33" s="2">
+        <v>32.42</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>